--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias39Loss.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias39Loss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A281E7-DE34-4F7E-AAEC-9B67094EBF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAA7804-6F6A-47FD-97E3-24D24A7313C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -961,7 +961,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1198,7 +1198,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="27">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="25" t="s">

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias39Loss.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias39Loss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAA7804-6F6A-47FD-97E3-24D24A7313C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67B4EC5-2125-4A9B-A11D-EEC75F2D9DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,10 +288,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1重整2破產9其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>原因說明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -312,20 +308,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>01個別評價99其他 
+    <t>MarkRsn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarkRsnDesc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LosCod</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:重整
+2:破產
+9:其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:個別評價
+99:其他 
 add 2021/12/2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MarkRsn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MarkRsnDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LosCod</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -961,7 +964,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1142,7 +1145,7 @@
       <c r="F11" s="20"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>4</v>
       </c>
@@ -1160,18 +1163,18 @@
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>31</v>
@@ -1181,7 +1184,7 @@
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1189,10 +1192,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>42</v>
@@ -1202,7 +1205,7 @@
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1210,10 +1213,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>31</v>
@@ -1223,7 +1226,7 @@
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
